--- a/JB,325-09103505-03,02.xlsx
+++ b/JB,325-09103505-03,02.xlsx
@@ -479,35 +479,27 @@
           <t>004339-5-1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1020</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1020</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>13037</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -531,35 +523,27 @@
           <t>004339-5-1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1030</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1030</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>46354</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.01</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -583,35 +567,27 @@
           <t>004339-5-1</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1040</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1040</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>62017</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0.01</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -635,35 +611,27 @@
           <t>004339-5-1</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1050</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1050</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>63640-C6</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D5" t="n">
+        <v>0.01</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -687,35 +655,27 @@
           <t>004339-5-1</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
+      <c r="B6" t="n">
+        <v>1060</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>752031-C3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D6" t="n">
+        <v>0.01</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -739,35 +699,27 @@
           <t>004339-5-1</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1070</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1070</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>841031-C3</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D7" t="n">
+        <v>0.01</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -791,35 +743,27 @@
           <t>004339-5-1</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1080</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1080</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>968231-C3</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0.01</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -843,35 +787,27 @@
           <t>004339-5-1</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1090</t>
-        </is>
+      <c r="B9" t="n">
+        <v>1090</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>T70026</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D9" t="n">
+        <v>0.01</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -895,35 +831,27 @@
           <t>004339-5-1</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1100</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>T80836</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0.01</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -937,7 +865,8 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>End Mill, square, 3D, 10 mm, 4 flutes, rougher, 35 LOC, carbide / AlTiN\rnew p/n is T70032</t>
+          <t>End Mill, square, 3D, 10 mm, 4 flutes, rougher, 35 LOC, carbide / AlTiN
+new p/n is T70032</t>
         </is>
       </c>
     </row>
@@ -947,35 +876,27 @@
           <t>004339-5-1</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1110</t>
-        </is>
+      <c r="B11" t="n">
+        <v>1110</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>T80868</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D11" t="n">
+        <v>0.01</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -999,35 +920,27 @@
           <t>004339-5-1</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1120</t>
-        </is>
+      <c r="B12" t="n">
+        <v>1120</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>VQJHVD0200</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0.01</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
